--- a/RFIDentity/src/main/resources/SAPVM/SAP_20240414.xlsx
+++ b/RFIDentity/src/main/resources/SAPVM/SAP_20240414.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext1\Documents\GitHub\RFIDentity-backend\RFIDentity\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext1\Documents\GitHub\RFIDentity-backend\RFIDentity\src\main\resources\SAPVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B24F2C-F5B7-47D3-86AA-93C68E87A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E780FD2F-48EB-409D-AE32-343A5BDF8DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="4500" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22200" yWindow="585" windowWidth="14955" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
